--- a/data/trans_dic/Q20C_R2-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/Q20C_R2-Provincia-trans_dic.xlsx
@@ -718,17 +718,17 @@
         <v>0</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1526700101076681</v>
+        <v>0.1534444519970427</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="K5" s="5" t="inlineStr"/>
       <c r="L5" s="5" t="n">
-        <v>0.05041682412967196</v>
+        <v>0.05141287411326233</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.08148970241083134</v>
+        <v>0.07986946424440114</v>
       </c>
       <c r="N5" s="5" t="n">
         <v>0</v>
@@ -743,7 +743,7 @@
       </c>
       <c r="C6" s="5" t="inlineStr"/>
       <c r="D6" s="5" t="n">
-        <v>0.5175638897154974</v>
+        <v>0.5491298686634204</v>
       </c>
       <c r="E6" s="5" t="inlineStr"/>
       <c r="F6" s="5" t="n">
@@ -751,23 +751,23 @@
       </c>
       <c r="G6" s="5" t="inlineStr"/>
       <c r="H6" s="5" t="n">
-        <v>0.5596740844378025</v>
+        <v>0.5567356225285965</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.8310086363271321</v>
+        <v>0.8344302300247399</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.6898154596593927</v>
+        <v>0.6570804823641514</v>
       </c>
       <c r="K6" s="5" t="inlineStr"/>
       <c r="L6" s="5" t="n">
-        <v>0.4438191381774971</v>
+        <v>0.4217731492297463</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.6414966983471944</v>
+        <v>0.5826023530204754</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.7568758097859043</v>
+        <v>0.753283569473376</v>
       </c>
     </row>
     <row r="7">
@@ -833,29 +833,29 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.008949931634183813</v>
+        <v>0.0563010297809905</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1074749597647612</v>
+        <v>0.1074707554390519</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.06222960547078112</v>
+        <v>0</v>
       </c>
       <c r="I8" s="5" t="inlineStr"/>
       <c r="J8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.06874620135362465</v>
+        <v>0.06961360391381329</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.07727826272625832</v>
+        <v>0.07774184556479606</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.05561573974166512</v>
+        <v>0.04567402501792397</v>
       </c>
     </row>
     <row r="9">
@@ -867,35 +867,35 @@
       </c>
       <c r="C9" s="5" t="inlineStr"/>
       <c r="D9" s="5" t="n">
-        <v>0.5799007639419071</v>
+        <v>0.5704395091276545</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.6761220779370136</v>
+        <v>0.8372769870184055</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.5241510170250132</v>
+        <v>0.5504971511232321</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.6832019644424087</v>
+        <v>0.6835377867252278</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.5144159161106444</v>
+        <v>0.4740388005802368</v>
       </c>
       <c r="I9" s="5" t="inlineStr"/>
       <c r="J9" s="5" t="n">
-        <v>0.5142947841368035</v>
+        <v>0.5275362439191488</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.5209770592156895</v>
+        <v>0.5088177147000434</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.4228288257117063</v>
+        <v>0.4406759260574306</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.4880752843106098</v>
+        <v>0.4827091501385384</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.450459052656852</v>
+        <v>0.4481006333175571</v>
       </c>
     </row>
     <row r="10">
@@ -962,7 +962,7 @@
       <c r="G11" s="5" t="inlineStr"/>
       <c r="H11" s="5" t="inlineStr"/>
       <c r="I11" s="5" t="n">
-        <v>0.1331038624975613</v>
+        <v>0.1302767378510003</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>0</v>
@@ -970,10 +970,10 @@
       <c r="K11" s="5" t="inlineStr"/>
       <c r="L11" s="5" t="inlineStr"/>
       <c r="M11" s="5" t="n">
-        <v>0.1043380031901938</v>
+        <v>0.1027775235503518</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.06174878516798182</v>
+        <v>0.06017956519297821</v>
       </c>
     </row>
     <row r="12">
@@ -987,23 +987,23 @@
       <c r="D12" s="5" t="inlineStr"/>
       <c r="E12" s="5" t="inlineStr"/>
       <c r="F12" s="5" t="n">
-        <v>0.5322451971361806</v>
+        <v>0.5832650999345813</v>
       </c>
       <c r="G12" s="5" t="inlineStr"/>
       <c r="H12" s="5" t="inlineStr"/>
       <c r="I12" s="5" t="n">
-        <v>0.8498297970732641</v>
+        <v>0.8523777116345709</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.530804411746827</v>
+        <v>0.5587608415610087</v>
       </c>
       <c r="K12" s="5" t="inlineStr"/>
       <c r="L12" s="5" t="inlineStr"/>
       <c r="M12" s="5" t="n">
-        <v>0.6871071194208105</v>
+        <v>0.6852177782161558</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.4192775861410665</v>
+        <v>0.4228866055072409</v>
       </c>
     </row>
     <row r="13">
@@ -1025,7 +1025,7 @@
         <v>0.1147038584383554</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.530599853926713</v>
+        <v>0.5305998539267129</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.1342713332982898</v>
@@ -1067,7 +1067,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1695034120571999</v>
+        <v>0.1739260275711864</v>
       </c>
       <c r="G14" s="5" t="n">
         <v>0</v>
@@ -1076,22 +1076,22 @@
         <v>0</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.07671066202998568</v>
+        <v>0.08038885374603238</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.05325921050716705</v>
+        <v>0.04792464944872975</v>
       </c>
       <c r="K14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.06932528666915844</v>
+        <v>0.06946526482635716</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.05224514417974141</v>
+        <v>0.0515815295384858</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1929262140531607</v>
+        <v>0.1991706713734394</v>
       </c>
     </row>
     <row r="15">
@@ -1103,37 +1103,37 @@
       </c>
       <c r="C15" s="5" t="inlineStr"/>
       <c r="D15" s="5" t="n">
-        <v>0.7744809464217071</v>
+        <v>0.7894341705946336</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.4963685295521578</v>
+        <v>0.5461560371840906</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.837763515429702</v>
+        <v>0.8282238946856555</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.564496622359358</v>
+        <v>0.561484156844255</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.7023324337589291</v>
+        <v>0.7065974105008788</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.63961900003035</v>
+        <v>0.6647791573945029</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.6307620446682363</v>
+        <v>0.5618225317531105</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.564496622359358</v>
+        <v>0.561484156844255</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.5772760204689636</v>
+        <v>0.5638344106436453</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.4440780010051947</v>
+        <v>0.4397964194451879</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.6562362283452126</v>
+        <v>0.6427262442288277</v>
       </c>
     </row>
     <row r="16">
@@ -1214,7 +1214,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.1391407780983682</v>
+        <v>0.1387668083148277</v>
       </c>
       <c r="N17" s="5" t="n">
         <v>0</v>
@@ -1229,13 +1229,13 @@
       </c>
       <c r="C18" s="5" t="inlineStr"/>
       <c r="D18" s="5" t="n">
-        <v>0.6008260768128392</v>
+        <v>0.5962398210937745</v>
       </c>
       <c r="E18" s="5" t="n">
         <v>0.81533308368897</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.7867100473384044</v>
+        <v>0.8811769281448061</v>
       </c>
       <c r="G18" s="5" t="inlineStr"/>
       <c r="H18" s="5" t="inlineStr"/>
@@ -1247,13 +1247,13 @@
       </c>
       <c r="K18" s="5" t="inlineStr"/>
       <c r="L18" s="5" t="n">
-        <v>0.3535174984331818</v>
+        <v>0.3802139394361433</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.8542268986112816</v>
+        <v>0.8571078708174821</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.706195520675946</v>
+        <v>0.7189129798147035</v>
       </c>
     </row>
     <row r="19">
@@ -1301,7 +1301,7 @@
         <v>0.0791915203906559</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.3798613916906806</v>
+        <v>0.3798613916906808</v>
       </c>
     </row>
     <row r="20">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="E20" s="5" t="inlineStr"/>
       <c r="F20" s="5" t="n">
-        <v>0.2342096505992186</v>
+        <v>0.2471046685786516</v>
       </c>
       <c r="G20" s="5" t="inlineStr"/>
       <c r="H20" s="5" t="n">
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.1742343643719352</v>
+        <v>0.1905860375450207</v>
       </c>
     </row>
     <row r="21">
@@ -1359,29 +1359,29 @@
       </c>
       <c r="E21" s="5" t="inlineStr"/>
       <c r="F21" s="5" t="n">
-        <v>0.844012945844597</v>
+        <v>0.7862226969396792</v>
       </c>
       <c r="G21" s="5" t="inlineStr"/>
       <c r="H21" s="5" t="n">
-        <v>0.7693599386182259</v>
+        <v>0.7865081651989604</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.5665890343614319</v>
+        <v>0.5660351894879555</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.4844664253931674</v>
+        <v>0.6461924799074739</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.4951770548254953</v>
+        <v>0.4099708151473898</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.623791629691875</v>
+        <v>0.6206411799258484</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.4105813461012732</v>
+        <v>0.3697547617188326</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.6453304868644415</v>
+        <v>0.6489612853536856</v>
       </c>
     </row>
     <row r="22">
@@ -1429,7 +1429,7 @@
         <v>0.3569821993282728</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.2325173137785414</v>
+        <v>0.2325173137785415</v>
       </c>
     </row>
     <row r="23">
@@ -1440,13 +1440,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.2922669238909905</v>
+        <v>0.2959879426257301</v>
       </c>
       <c r="D23" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1286727321641552</v>
+        <v>0.12051549543264</v>
       </c>
       <c r="F23" s="5" t="n">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>0</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.2507121185950857</v>
+        <v>0.2078480881197723</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.07203503908329298</v>
+        <v>0.07793050794253924</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.1428020666710912</v>
+        <v>0.1427123577882856</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.1566132800449171</v>
+        <v>0.1567378041420145</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.1873424024228139</v>
+        <v>0.1647785794351237</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.1471856939710777</v>
+        <v>0.1574175142196244</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.1236808480776075</v>
+        <v>0.1203611345462479</v>
       </c>
     </row>
     <row r="24">
@@ -1484,40 +1484,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.7931659702634596</v>
+        <v>0.8017006848320077</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.5658753042969816</v>
+        <v>0.6132662553308534</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.8689511644375564</v>
+        <v>0.8619368175253074</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.4976793639584394</v>
+        <v>0.4824762757333881</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.3617635725321121</v>
+        <v>0.3566322128077586</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.7595363831662589</v>
+        <v>0.7090080304876432</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.5923107489016097</v>
+        <v>0.6182617892071038</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.4992994963321107</v>
+        <v>0.4846070447513569</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.5081931493969817</v>
+        <v>0.4992107030518433</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.5848459129957891</v>
+        <v>0.5848902762297693</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.6043863310081348</v>
+        <v>0.6399808280152843</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.3995105998962371</v>
+        <v>0.3872515918362969</v>
       </c>
     </row>
     <row r="25">
@@ -1541,7 +1541,7 @@
         <v>0.1612681329908077</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>0.07701617543067953</v>
+        <v>0.07701617543067954</v>
       </c>
       <c r="G25" s="5" t="n">
         <v>0.3321831089991671</v>
@@ -1588,23 +1588,23 @@
         <v>0</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.09405928286529572</v>
+        <v>0.09460949458311521</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.1554069525282978</v>
+        <v>0.2020869720652237</v>
       </c>
       <c r="I26" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J26" s="5" t="inlineStr"/>
       <c r="K26" s="5" t="n">
-        <v>0.07505809738719459</v>
+        <v>0.07018643817305502</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.1995876621531941</v>
+        <v>0.1977926385933207</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.05430907719884909</v>
+        <v>0.05799877901665475</v>
       </c>
       <c r="N26" s="5" t="n">
         <v>0</v>
@@ -1621,35 +1621,35 @@
         <v>0.6780807097712241</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.6650683184444024</v>
+        <v>0.665053151254768</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.5001215978201872</v>
+        <v>0.5035308002610518</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.5303029347257071</v>
+        <v>0.3319061590366126</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.6815823654259087</v>
+        <v>0.6739549557179711</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.7216487644407242</v>
+        <v>0.71964278937107</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.7201462883305784</v>
+        <v>0.716346916853554</v>
       </c>
       <c r="J27" s="5" t="inlineStr"/>
       <c r="K27" s="5" t="n">
-        <v>0.5336874723198402</v>
+        <v>0.5412264946606797</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.6735111765966353</v>
+        <v>0.6387550171596701</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.4309992887332335</v>
+        <v>0.476153439736888</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.2207827184839484</v>
+        <v>0.2111012962052574</v>
       </c>
     </row>
     <row r="28">
@@ -1697,7 +1697,7 @@
         <v>0.2435398874559074</v>
       </c>
       <c r="N28" s="5" t="n">
-        <v>0.2470574150554286</v>
+        <v>0.2470574150554285</v>
       </c>
     </row>
     <row r="29">
@@ -1708,40 +1708,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.1351803355467813</v>
+        <v>0.1375458788888443</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.1037011079521781</v>
+        <v>0.1024376226002854</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.1218495667186171</v>
+        <v>0.1073106239483841</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.1871880929198684</v>
+        <v>0.1892262510353047</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.09139629209161486</v>
+        <v>0.09425922117981216</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.1800371759569567</v>
+        <v>0.1836559479770491</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.1646700272429263</v>
+        <v>0.1601220683622272</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.1259375241777167</v>
+        <v>0.1183727587952329</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.137384250497102</v>
+        <v>0.1382380243743739</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.1717911101721128</v>
+        <v>0.1729325614287226</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.1645492194268222</v>
+        <v>0.172582110948147</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.1813013118799221</v>
+        <v>0.186328504813216</v>
       </c>
     </row>
     <row r="30">
@@ -1752,40 +1752,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.4236466516371003</v>
+        <v>0.4332447562475061</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.2940577750469088</v>
+        <v>0.306398945988577</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.3552547090983913</v>
+        <v>0.3517759010470973</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.4144071616065038</v>
+        <v>0.4151979612514347</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.3034770822376806</v>
+        <v>0.3049938693188232</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.3800768944500938</v>
+        <v>0.3878761890559846</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.3979300091435926</v>
+        <v>0.3874785861161484</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.3116889990458611</v>
+        <v>0.3009081665139041</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.3194107345516055</v>
+        <v>0.3066642005008935</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.3191112570429627</v>
+        <v>0.326690696293803</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.3372274808387563</v>
+        <v>0.3394312086161756</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.3315481902648355</v>
+        <v>0.3288637809110352</v>
       </c>
     </row>
     <row r="31">
@@ -2070,17 +2070,17 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>859</v>
+        <v>863</v>
       </c>
       <c r="J6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="K6" s="6" t="inlineStr"/>
       <c r="L6" s="6" t="n">
-        <v>1059</v>
+        <v>1080</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>829</v>
+        <v>812</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0</v>
@@ -2095,7 +2095,7 @@
       </c>
       <c r="C7" s="6" t="inlineStr"/>
       <c r="D7" s="6" t="n">
-        <v>5975</v>
+        <v>6340</v>
       </c>
       <c r="E7" s="6" t="inlineStr"/>
       <c r="F7" s="6" t="n">
@@ -2103,23 +2103,23 @@
       </c>
       <c r="G7" s="6" t="inlineStr"/>
       <c r="H7" s="6" t="n">
-        <v>5297</v>
+        <v>5269</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>4674</v>
+        <v>4693</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>2064</v>
+        <v>1966</v>
       </c>
       <c r="K7" s="6" t="inlineStr"/>
       <c r="L7" s="6" t="n">
-        <v>9324</v>
+        <v>8861</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>6523</v>
+        <v>5924</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>3886</v>
+        <v>3867</v>
       </c>
     </row>
     <row r="8">
@@ -2229,29 +2229,29 @@
         <v>0</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>138</v>
+        <v>870</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>968</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>915</v>
+        <v>0</v>
       </c>
       <c r="I10" s="6" t="inlineStr"/>
       <c r="J10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>969</v>
+        <v>981</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>1925</v>
+        <v>1937</v>
       </c>
       <c r="M10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>1224</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="11">
@@ -2263,35 +2263,35 @@
       </c>
       <c r="C11" s="6" t="inlineStr"/>
       <c r="D11" s="6" t="n">
-        <v>5922</v>
+        <v>5825</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>4493</v>
+        <v>5564</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>8099</v>
+        <v>8506</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>6152</v>
+        <v>6155</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>7562</v>
+        <v>6968</v>
       </c>
       <c r="I11" s="6" t="inlineStr"/>
       <c r="J11" s="6" t="n">
-        <v>3371</v>
+        <v>3457</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>7345</v>
+        <v>7174</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>10534</v>
+        <v>10979</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>6975</v>
+        <v>6898</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>9912</v>
+        <v>9860</v>
       </c>
     </row>
     <row r="12">
@@ -2402,7 +2402,7 @@
       <c r="G14" s="6" t="inlineStr"/>
       <c r="H14" s="6" t="inlineStr"/>
       <c r="I14" s="6" t="n">
-        <v>938</v>
+        <v>918</v>
       </c>
       <c r="J14" s="6" t="n">
         <v>0</v>
@@ -2410,10 +2410,10 @@
       <c r="K14" s="6" t="inlineStr"/>
       <c r="L14" s="6" t="inlineStr"/>
       <c r="M14" s="6" t="n">
-        <v>926</v>
+        <v>912</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>823</v>
+        <v>802</v>
       </c>
     </row>
     <row r="15">
@@ -2427,23 +2427,23 @@
       <c r="D15" s="6" t="inlineStr"/>
       <c r="E15" s="6" t="inlineStr"/>
       <c r="F15" s="6" t="n">
-        <v>4095</v>
+        <v>4487</v>
       </c>
       <c r="G15" s="6" t="inlineStr"/>
       <c r="H15" s="6" t="inlineStr"/>
       <c r="I15" s="6" t="n">
-        <v>5991</v>
+        <v>6009</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>2991</v>
+        <v>3149</v>
       </c>
       <c r="K15" s="6" t="inlineStr"/>
       <c r="L15" s="6" t="inlineStr"/>
       <c r="M15" s="6" t="n">
-        <v>6100</v>
+        <v>6083</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>5588</v>
+        <v>5636</v>
       </c>
     </row>
     <row r="16">
@@ -2551,7 +2551,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>1823</v>
+        <v>1870</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0</v>
@@ -2560,22 +2560,22 @@
         <v>0</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>853</v>
+        <v>894</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>379</v>
+        <v>341</v>
       </c>
       <c r="K18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>1017</v>
+        <v>1004</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>3447</v>
+        <v>3558</v>
       </c>
     </row>
     <row r="19">
@@ -2587,37 +2587,37 @@
       </c>
       <c r="C19" s="6" t="inlineStr"/>
       <c r="D19" s="6" t="n">
-        <v>3704</v>
+        <v>3775</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>4143</v>
+        <v>4559</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>9009</v>
+        <v>8907</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>3666</v>
+        <v>3646</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>5284</v>
+        <v>5316</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>7110</v>
+        <v>7390</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>4485</v>
+        <v>3995</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>3666</v>
+        <v>3646</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>7104</v>
+        <v>6939</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>8643</v>
+        <v>8560</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>11724</v>
+        <v>11482</v>
       </c>
     </row>
     <row r="20">
@@ -2742,7 +2742,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0</v>
@@ -2757,13 +2757,13 @@
       </c>
       <c r="C23" s="6" t="inlineStr"/>
       <c r="D23" s="6" t="n">
-        <v>4235</v>
+        <v>4203</v>
       </c>
       <c r="E23" s="6" t="n">
         <v>3892</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>1926</v>
+        <v>2157</v>
       </c>
       <c r="G23" s="6" t="inlineStr"/>
       <c r="H23" s="6" t="inlineStr"/>
@@ -2775,13 +2775,13 @@
       </c>
       <c r="K23" s="6" t="inlineStr"/>
       <c r="L23" s="6" t="n">
-        <v>4558</v>
+        <v>4902</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>5749</v>
+        <v>5768</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>2573</v>
+        <v>2619</v>
       </c>
     </row>
     <row r="24">
@@ -2891,7 +2891,7 @@
       </c>
       <c r="E26" s="6" t="inlineStr"/>
       <c r="F26" s="6" t="n">
-        <v>1429</v>
+        <v>1508</v>
       </c>
       <c r="G26" s="6" t="inlineStr"/>
       <c r="H26" s="6" t="n">
@@ -2913,7 +2913,7 @@
         <v>0</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>1641</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="27">
@@ -2931,29 +2931,29 @@
       </c>
       <c r="E27" s="6" t="inlineStr"/>
       <c r="F27" s="6" t="n">
-        <v>5151</v>
+        <v>4798</v>
       </c>
       <c r="G27" s="6" t="inlineStr"/>
       <c r="H27" s="6" t="n">
-        <v>3195</v>
+        <v>3266</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>4532</v>
+        <v>4527</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>1605</v>
+        <v>2141</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>4739</v>
+        <v>3924</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>5812</v>
+        <v>5783</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>5198</v>
+        <v>4681</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>6076</v>
+        <v>6111</v>
       </c>
     </row>
     <row r="28">
@@ -3056,13 +3056,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>3674</v>
+        <v>3721</v>
       </c>
       <c r="D30" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>1142</v>
+        <v>1070</v>
       </c>
       <c r="F30" s="6" t="n">
         <v>0</v>
@@ -3071,25 +3071,25 @@
         <v>0</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>3776</v>
+        <v>3131</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>791</v>
+        <v>856</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>2760</v>
+        <v>2758</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>4511</v>
+        <v>4514</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>4608</v>
+        <v>4053</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>2922</v>
+        <v>3126</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>3544</v>
+        <v>3449</v>
       </c>
     </row>
     <row r="31">
@@ -3100,40 +3100,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>9970</v>
+        <v>10077</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>5394</v>
+        <v>5846</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>7712</v>
+        <v>7650</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>4639</v>
+        <v>4498</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>5873</v>
+        <v>5789</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>11441</v>
+        <v>10680</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>6504</v>
+        <v>6789</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>9651</v>
+        <v>9367</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>14637</v>
+        <v>14378</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>14385</v>
+        <v>14386</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>12000</v>
+        <v>12707</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>11447</v>
+        <v>11096</v>
       </c>
     </row>
     <row r="32">
@@ -3248,23 +3248,23 @@
         <v>0</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>786</v>
+        <v>790</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>2376</v>
+        <v>3089</v>
       </c>
       <c r="I34" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J34" s="6" t="inlineStr"/>
       <c r="K34" s="6" t="n">
-        <v>1051</v>
+        <v>983</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>4321</v>
+        <v>4282</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>1058</v>
+        <v>1130</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0</v>
@@ -3284,32 +3284,32 @@
         <v>4232</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>5803</v>
+        <v>5842</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>4583</v>
+        <v>2869</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>5693</v>
+        <v>5630</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>11032</v>
+        <v>11001</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>5675</v>
+        <v>5645</v>
       </c>
       <c r="J35" s="6" t="inlineStr"/>
       <c r="K35" s="6" t="n">
-        <v>7473</v>
+        <v>7579</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>14582</v>
+        <v>13829</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>8397</v>
+        <v>9277</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>2975</v>
+        <v>2845</v>
       </c>
     </row>
     <row r="36">
@@ -3412,40 +3412,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>4503</v>
+        <v>4582</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>6199</v>
+        <v>6124</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>6248</v>
+        <v>5503</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>11710</v>
+        <v>11837</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>4480</v>
+        <v>4620</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>14612</v>
+        <v>14906</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>9921</v>
+        <v>9647</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>6418</v>
+        <v>6033</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>11310</v>
+        <v>11380</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>24213</v>
+        <v>24374</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>18352</v>
+        <v>19248</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>20581</v>
+        <v>21152</v>
       </c>
     </row>
     <row r="39">
@@ -3456,40 +3456,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>14113</v>
+        <v>14432</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>17579</v>
+        <v>18317</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>18217</v>
+        <v>18038</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>25923</v>
+        <v>25973</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>14874</v>
+        <v>14949</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>30848</v>
+        <v>31481</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>23974</v>
+        <v>23345</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>15885</v>
+        <v>15335</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>26295</v>
+        <v>25246</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>44976</v>
+        <v>46045</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>37610</v>
+        <v>37856</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>37637</v>
+        <v>37333</v>
       </c>
     </row>
     <row r="40">
